--- a/data/trans_bre/IP2004-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP2004-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 8,21</t>
+          <t>-4,51; 8,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 4,08</t>
+          <t>-9,23; 3,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 8,96</t>
+          <t>-2,89; 9,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 0,01</t>
+          <t>-11,66; 0,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,72; 310,03</t>
+          <t>-59,52; 267,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-79,02; 157,78</t>
+          <t>-82,57; 132,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-79,13; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,38</t>
+          <t>-2,62; 1,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,67</t>
+          <t>-0,88; 2,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,94</t>
+          <t>-0,44; 3,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,01</t>
+          <t>-1,98; 1,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,81; 51,24</t>
+          <t>-54,63; 53,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,73; 190,1</t>
+          <t>-31,81; 190,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-28,03; 253,64</t>
+          <t>-21,7; 262,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-68,93; 99,72</t>
+          <t>-73,74; 87,57</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,49</t>
+          <t>0,46; 4,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 4,64</t>
+          <t>-0,41; 4,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 2,89</t>
+          <t>-0,54; 2,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,67; -0,25</t>
+          <t>-5,07; -0,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-75,37; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 402,72</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,77</t>
+          <t>-1,23; 1,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,17</t>
+          <t>-0,76; 2,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 2,58</t>
+          <t>-0,16; 2,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 0,13</t>
+          <t>-2,31; 0,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-33,13; 75,54</t>
+          <t>-32,48; 80,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 122,92</t>
+          <t>-26,2; 129,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 244,2</t>
+          <t>-11,09; 234,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-78,01; 10,72</t>
+          <t>-77,27; 24,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2004-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP2004-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores a los que les sangran las encias al cepillarse</t>
+          <t>Menores a los que les sangran las encías</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,85%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,57%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,25; 8,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,11; 3,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; 8,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,05; 0,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,97; 261,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,76; 138,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,7%</t>
+          <t>-15,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-32,85%</t>
+          <t>41,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>72,1%</t>
+          <t>65,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-84,2%</t>
+          <t>-23,27%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 8,17</t>
+          <t>-2,65; 1,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 3,27</t>
+          <t>-0,66; 2,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 9,34</t>
+          <t>-0,56; 3,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 0,06</t>
+          <t>-1,88; 1,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,52; 267,9</t>
+          <t>-53,3; 57,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,57; 132,36</t>
+          <t>-28,33; 200,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,82; 295,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,94; 125,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-15,49%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>41,88%</t>
+          <t>209,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>65,33%</t>
+          <t>194,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-18,9%</t>
+          <t>-81,79%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 1,36</t>
+          <t>0,46; 4,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 2,73</t>
+          <t>-0,34; 4,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,16</t>
+          <t>-0,51; 2,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,02</t>
+          <t>-4,48; -0,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,63; 53,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,81; 190,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-21,7; 262,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-73,74; 87,57</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>209,63%</t>
+          <t>29,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>194,14%</t>
+          <t>72,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-81,01%</t>
+          <t>-48,79%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,23</t>
+          <t>-1,41; 1,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 4,67</t>
+          <t>-0,76; 2,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 2,97</t>
+          <t>-0,18; 2,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,07; -0,35</t>
+          <t>-2,56; 0,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,3; 72,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,08; 132,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,18; 229,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 402,72</t>
+          <t>-78,97; 5,37</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8,3%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>29,79%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>72,81%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-46,48%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,23; 1,92</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 2,23</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,16; 2,63</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,31; 0,28</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-32,48; 80,1</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-26,2; 129,61</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-11,09; 234,45</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-77,27; 24,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
